--- a/admin/ajax/THá»NG KÃŠ SÃCH CHÆ¯A MÆ¯á»¢N.xlsx
+++ b/admin/ajax/THá»NG KÃŠ SÃCH CHÆ¯A MÆ¯á»¢N.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>THỐNG KÊ SÁCH CHƯA MƯỢN</t>
   </si>
@@ -47,7 +47,7 @@
     <t>S6</t>
   </si>
   <si>
-    <t>qdqwwqd</t>
+    <t>Phát triển phần mềm mã nguồn mở</t>
   </si>
   <si>
     <t>Sách tham khảo</t>
@@ -60,6 +60,51 @@
   </si>
   <si>
     <t>Sách nâng cao</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>Hệ Quản Trị Cơ Sở Dữ Liệu</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Lý Thuyết Ngôn Ngữ Hình Thức</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Đồ Họa Máy Tính</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Tương Tác Người Máy</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Truyền Số Liệu</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Tư Tưởng Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Sách Tư Tưởng</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Hóa Học</t>
   </si>
 </sst>
 </file>
@@ -445,7 +490,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E5" sqref="E5"/>
@@ -453,9 +498,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.427734" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="37.705078" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="4.570313" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -538,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="5">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -555,7 +600,126 @@
         <v>14</v>
       </c>
       <c r="E8" s="5">
-        <v>100</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
